--- a/woodshop.xlsx
+++ b/woodshop.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
   <si>
     <t xml:space="preserve">Holmstad Wood Shop – Inventory</t>
   </si>
@@ -53,7 +53,7 @@
     <t xml:space="preserve">General</t>
   </si>
   <si>
-    <t xml:space="preserve">Specifig</t>
+    <t xml:space="preserve">Specific</t>
   </si>
   <si>
     <t xml:space="preserve">Other</t>
@@ -62,7 +62,7 @@
     <t xml:space="preserve">Item Maker</t>
   </si>
   <si>
-    <t xml:space="preserve">Spoons, wooden – large - 12”</t>
+    <t xml:space="preserve">Spoons, wooden – large – 12”</t>
   </si>
   <si>
     <t xml:space="preserve">Household</t>
@@ -99,6 +99,21 @@
   </si>
   <si>
     <t xml:space="preserve">???</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phone holder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">office</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Squirrel tables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feeder, squirl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Outdoor</t>
   </si>
 </sst>
 </file>
@@ -199,7 +214,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -254,6 +269,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -273,10 +292,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="D2:M11"/>
+  <dimension ref="D2:M13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G17" activeCellId="0" sqref="G17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -306,7 +325,7 @@
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D3" s="4" t="n">
         <f aca="true">NOW()</f>
-        <v>44322.6741338426</v>
+        <v>44327.349744456</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
@@ -376,7 +395,7 @@
       <c r="D7" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="F7" s="13" t="n">
+      <c r="F7" s="14" t="n">
         <v>6</v>
       </c>
       <c r="G7" s="0" t="s">
@@ -399,7 +418,7 @@
       <c r="D8" s="13" t="n">
         <v>1.1</v>
       </c>
-      <c r="F8" s="13" t="n">
+      <c r="F8" s="14" t="n">
         <v>2</v>
       </c>
       <c r="G8" s="0" t="s">
@@ -422,7 +441,7 @@
       <c r="D9" s="13" t="n">
         <v>1.2</v>
       </c>
-      <c r="F9" s="13" t="n">
+      <c r="F9" s="14" t="n">
         <v>6</v>
       </c>
       <c r="G9" s="0" t="s">
@@ -445,7 +464,7 @@
       <c r="D10" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="F10" s="13" t="n">
+      <c r="F10" s="14" t="n">
         <v>4</v>
       </c>
       <c r="G10" s="0" t="s">
@@ -471,7 +490,7 @@
       <c r="D11" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="F11" s="13" t="n">
+      <c r="F11" s="14" t="n">
         <v>6</v>
       </c>
       <c r="G11" s="0" t="s">
@@ -485,6 +504,52 @@
       </c>
       <c r="M11" s="0" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D12" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="F12" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="K12" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="M12" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D13" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="F13" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="J13" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="K13" s="2" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
